--- a/outputs-HGR-r202-archive3/f__Streptococcaceae.xlsx
+++ b/outputs-HGR-r202-archive3/f__Streptococcaceae.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
@@ -470,18 +470,18 @@
       <c r="B2" t="n">
         <v>8181.380333310819</v>
       </c>
-      <c r="C2" t="n">
-        <v>8181.380333310819</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -493,18 +493,18 @@
       <c r="B3" t="n">
         <v>8173.062798172981</v>
       </c>
-      <c r="C3" t="n">
-        <v>8173.062798172981</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -516,18 +516,18 @@
       <c r="B4" t="n">
         <v>8108.5976535272</v>
       </c>
-      <c r="C4" t="n">
-        <v>8108.5976535272</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -539,18 +539,18 @@
       <c r="B5" t="n">
         <v>8174.200002551235</v>
       </c>
-      <c r="C5" t="n">
-        <v>8174.200002551235</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -562,18 +562,18 @@
       <c r="B6" t="n">
         <v>8121.18877119985</v>
       </c>
-      <c r="C6" t="n">
-        <v>8121.18877119985</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -585,18 +585,18 @@
       <c r="B7" t="n">
         <v>8046.838802456685</v>
       </c>
-      <c r="C7" t="n">
-        <v>8046.838802456685</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -608,18 +608,18 @@
       <c r="B8" t="n">
         <v>8267.818189392678</v>
       </c>
-      <c r="C8" t="n">
-        <v>8267.818189392678</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -631,18 +631,18 @@
       <c r="B9" t="n">
         <v>19629.3161507431</v>
       </c>
-      <c r="C9" t="n">
-        <v>19629.3161507431</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -654,18 +654,18 @@
       <c r="B10" t="n">
         <v>8389.733273345804</v>
       </c>
-      <c r="C10" t="n">
-        <v>8389.733273345804</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -677,18 +677,18 @@
       <c r="B11" t="n">
         <v>17312.1725548394</v>
       </c>
-      <c r="C11" t="n">
-        <v>17312.1725548394</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -700,18 +700,18 @@
       <c r="B12" t="n">
         <v>17499.89378328563</v>
       </c>
-      <c r="C12" t="n">
-        <v>17499.89378328563</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -723,18 +723,18 @@
       <c r="B13" t="n">
         <v>6616.354350516407</v>
       </c>
-      <c r="C13" t="n">
-        <v>6616.354350516407</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -746,18 +746,18 @@
       <c r="B14" t="n">
         <v>6477.819297926388</v>
       </c>
-      <c r="C14" t="n">
-        <v>6477.819297926388</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -769,18 +769,18 @@
       <c r="B15" t="n">
         <v>8476.426546423203</v>
       </c>
-      <c r="C15" t="n">
-        <v>8476.426546423203</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -792,18 +792,18 @@
       <c r="B16" t="n">
         <v>8287.308610461991</v>
       </c>
-      <c r="C16" t="n">
-        <v>8287.308610461991</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -815,18 +815,18 @@
       <c r="B17" t="n">
         <v>8320.192913785992</v>
       </c>
-      <c r="C17" t="n">
-        <v>8320.192913785992</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -838,18 +838,18 @@
       <c r="B18" t="n">
         <v>8265.123030276474</v>
       </c>
-      <c r="C18" t="n">
-        <v>8265.123030276474</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -861,18 +861,18 @@
       <c r="B19" t="n">
         <v>8290.049686869648</v>
       </c>
-      <c r="C19" t="n">
-        <v>8290.049686869648</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -884,18 +884,18 @@
       <c r="B20" t="n">
         <v>8283.448281585597</v>
       </c>
-      <c r="C20" t="n">
-        <v>8283.448281585597</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -907,18 +907,18 @@
       <c r="B21" t="n">
         <v>8283.519742509683</v>
       </c>
-      <c r="C21" t="n">
-        <v>8283.519742509683</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -930,18 +930,18 @@
       <c r="B22" t="n">
         <v>8268.276008715298</v>
       </c>
-      <c r="C22" t="n">
-        <v>8268.276008715298</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -953,18 +953,18 @@
       <c r="B23" t="n">
         <v>8288.600146690636</v>
       </c>
-      <c r="C23" t="n">
-        <v>8288.600146690636</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -976,18 +976,18 @@
       <c r="B24" t="n">
         <v>8278.593379921813</v>
       </c>
-      <c r="C24" t="n">
-        <v>8278.593379921813</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -999,18 +999,18 @@
       <c r="B25" t="n">
         <v>8248.199724449654</v>
       </c>
-      <c r="C25" t="n">
-        <v>8248.199724449654</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1022,18 +1022,18 @@
       <c r="B26" t="n">
         <v>8270.574324492232</v>
       </c>
-      <c r="C26" t="n">
-        <v>8270.574324492232</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1045,18 +1045,18 @@
       <c r="B27" t="n">
         <v>8270.230164608392</v>
       </c>
-      <c r="C27" t="n">
-        <v>8270.230164608392</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1068,18 +1068,18 @@
       <c r="B28" t="n">
         <v>8272.930433444013</v>
       </c>
-      <c r="C28" t="n">
-        <v>8272.930433444013</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1091,18 +1091,18 @@
       <c r="B29" t="n">
         <v>8211.47257885498</v>
       </c>
-      <c r="C29" t="n">
-        <v>8211.47257885498</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1114,18 +1114,18 @@
       <c r="B30" t="n">
         <v>8248.426995344907</v>
       </c>
-      <c r="C30" t="n">
-        <v>8248.426995344907</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1137,18 +1137,18 @@
       <c r="B31" t="n">
         <v>11901.34803616929</v>
       </c>
-      <c r="C31" t="n">
-        <v>11901.34803616929</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1160,18 +1160,18 @@
       <c r="B32" t="n">
         <v>8094.207614741372</v>
       </c>
-      <c r="C32" t="n">
-        <v>8094.207614741372</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>g__Streptococcus</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>g__Streptococcus</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>g__Streptococcus</t>
-        </is>
+      <c r="E32" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
